--- a/Assets/UI/gamedata.xlsx
+++ b/Assets/UI/gamedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="540" windowWidth="16935" windowHeight="5400" activeTab="5"/>
+    <workbookView xWindow="270" yWindow="585" windowWidth="23415" windowHeight="9000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponLevel" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="147">
   <si>
     <t>GDE_FIELD_NAMES</t>
   </si>
@@ -156,7 +156,7 @@
     <t>"w1_lv1","w1_lv2","w1_lv3"</t>
   </si>
   <si>
-    <t>Q-3</t>
+    <t>qiang1</t>
   </si>
   <si>
     <t>Glock 18</t>
@@ -168,7 +168,7 @@
     <t>GLOCK 18</t>
   </si>
   <si>
-    <t>Q-2</t>
+    <t>qiang2</t>
   </si>
   <si>
     <t>M3 SUPER</t>
@@ -177,18 +177,27 @@
     <t>"w3_lv1","w3_lv2","w3_lv3"</t>
   </si>
   <si>
+    <t>qiang3</t>
+  </si>
+  <si>
     <t>MAC 10</t>
   </si>
   <si>
     <t>"w4_lv1","w4_lv2","w4_lv3"</t>
   </si>
   <si>
+    <t>qiang4</t>
+  </si>
+  <si>
     <t>M4A1</t>
   </si>
   <si>
     <t>"w5_lv1","w5_lv2","w5_lv3"</t>
   </si>
   <si>
+    <t>qiang5</t>
+  </si>
+  <si>
     <t>Bomb</t>
   </si>
   <si>
@@ -270,23 +279,210 @@
     <t>Mission_1_1</t>
   </si>
   <si>
-    <t>Mission_1_1_0b4578c1fc474553b6d4ca57813f674d</t>
-  </si>
-  <si>
-    <t>Mission_1_1_0b4578c1fc474553b6d4ca57813f674d_b8b5755ba56f4134a33bbdf85ad95c1b</t>
-  </si>
-  <si>
-    <t>Mission_1_1_0b4578c1fc474553b6d4ca57813f674d_b8b5755ba56f4134a33bbdf85ad95c1b_97d62b40934e4ee2a3f9c31f3f3e1642</t>
-  </si>
-  <si>
-    <t>Mission_1_1_0b4578c1fc474553b6d4ca57813f674d_b8b5755ba56f4134a33bbdf85ad95c1b_97d62b40934e4ee2a3f9c31f3f3e1642_05c17d3a15d44aee858e8f4539514611</t>
+    <t>Mission_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_3_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_3_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_3_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_3_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_4_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_4_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_4_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_4_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_4_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_4_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_4_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_4_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_5_1</t>
+  </si>
+  <si>
+    <t>Mission_5_2</t>
+  </si>
+  <si>
+    <t>Mission_5_3</t>
+  </si>
+  <si>
+    <t>Mission_5_4</t>
+  </si>
+  <si>
+    <t>Mission_5_5</t>
+  </si>
+  <si>
+    <t>Mission_5_6</t>
+  </si>
+  <si>
+    <t>Mission_5_7</t>
+  </si>
+  <si>
+    <t>Mission_5_8</t>
+  </si>
+  <si>
+    <t>Mission_5_9</t>
+  </si>
+  <si>
+    <t>Mission_6_1</t>
+  </si>
+  <si>
+    <t>Mission_6_2</t>
+  </si>
+  <si>
+    <t>Mission_6_3</t>
+  </si>
+  <si>
+    <t>Mission_6_4</t>
+  </si>
+  <si>
+    <t>Mission_6_5</t>
+  </si>
+  <si>
+    <t>Mission_6_6</t>
+  </si>
+  <si>
+    <t>Mission_6_7</t>
+  </si>
+  <si>
+    <t>Mission_6_8</t>
+  </si>
+  <si>
+    <t>Mission_6_9</t>
+  </si>
+  <si>
+    <t>Mission_7_1</t>
+  </si>
+  <si>
+    <t>Mission_7_2</t>
+  </si>
+  <si>
+    <t>Mission_7_3</t>
+  </si>
+  <si>
+    <t>Mission_7_4</t>
+  </si>
+  <si>
+    <t>Mission_7_5</t>
+  </si>
+  <si>
+    <t>Mission_7_6</t>
+  </si>
+  <si>
+    <t>Mission_7_7</t>
+  </si>
+  <si>
+    <t>Mission_7_8</t>
+  </si>
+  <si>
+    <t>Mission_7_9</t>
+  </si>
+  <si>
+    <t>Mission_8_1</t>
+  </si>
+  <si>
+    <t>Mission_8_2</t>
+  </si>
+  <si>
+    <t>Mission_8_3</t>
+  </si>
+  <si>
+    <t>Mission_8_4</t>
+  </si>
+  <si>
+    <t>Mission_8_5</t>
+  </si>
+  <si>
+    <t>Mission_8_6</t>
+  </si>
+  <si>
+    <t>Mission_8_7</t>
+  </si>
+  <si>
+    <t>Mission_8_8</t>
+  </si>
+  <si>
+    <t>Mission_8_9</t>
+  </si>
+  <si>
+    <t>Mission_9_1</t>
+  </si>
+  <si>
+    <t>Mission_9_2</t>
+  </si>
+  <si>
+    <t>Mission_9_3</t>
+  </si>
+  <si>
+    <t>Mission_9_4</t>
+  </si>
+  <si>
+    <t>Mission_9_5</t>
+  </si>
+  <si>
+    <t>Mission_9_6</t>
+  </si>
+  <si>
+    <t>Mission_9_7</t>
+  </si>
+  <si>
+    <t>Mission_9_8</t>
+  </si>
+  <si>
+    <t>Mission_9_9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -296,6 +492,11 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -318,8 +519,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -623,16 +825,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="2" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1029,7 +1227,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1268,7 +1465,7 @@
         <v>49</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -1303,10 +1500,10 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -1326,7 +1523,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>10000</v>
@@ -1335,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
         <v>53</v>
       </c>
-      <c r="E6" t="s">
-        <v>52</v>
-      </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -1364,7 +1561,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>20000</v>
@@ -1373,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -1463,19 +1660,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -1510,16 +1707,16 @@
         <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1544,19 +1741,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -1564,13 +1761,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -1584,13 +1781,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -1604,13 +1801,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1630,10 +1827,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,34 +1850,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1720,7 +1917,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1735,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1747,15 +1944,15 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K3">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>83</v>
+      <c r="A4" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1770,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1782,15 +1979,15 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>84</v>
+      <c r="A5" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1799,13 +1996,13 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -1817,15 +2014,15 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>85</v>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1834,67 +2031,2063 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>10</v>
-      </c>
-      <c r="K6">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>3</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="K34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>10</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>10</v>
+      </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>10</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <v>10</v>
+      </c>
+      <c r="K43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>8</v>
+      </c>
+      <c r="K44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+      <c r="K45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>10</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>10</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>8</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>10</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>10</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>10</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>8</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+      <c r="K54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+      <c r="K55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>9</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>10</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>10</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>4</v>
+      </c>
+      <c r="K58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>10</v>
+      </c>
+      <c r="K59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="J60">
+        <v>10</v>
+      </c>
+      <c r="K60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>9</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61">
+        <v>10</v>
+      </c>
+      <c r="K61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <v>8</v>
+      </c>
+      <c r="K62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>9</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>4</v>
+      </c>
+      <c r="K63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>9</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>5</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <v>5</v>
+      </c>
+      <c r="K64">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>